--- a/data/trans_orig/P1404-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>70094</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57138</v>
+        <v>56593</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87454</v>
+        <v>88204</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1199951949211786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0978156419528767</v>
+        <v>0.09688247126304951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.149713461296485</v>
+        <v>0.1509979262731378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -765,19 +765,19 @@
         <v>143209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>121188</v>
+        <v>123157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166627</v>
+        <v>168163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1552678275310454</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1313924159091564</v>
+        <v>0.1335272465271356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.180658222838533</v>
+        <v>0.1823230517329849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>211</v>
@@ -786,19 +786,19 @@
         <v>213303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>187773</v>
+        <v>186029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>240848</v>
+        <v>241358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1415907259979122</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1246441467756811</v>
+        <v>0.1234862028805374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1598752176136511</v>
+        <v>0.1602139947928815</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>514047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>496687</v>
+        <v>495937</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>527003</v>
+        <v>527548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8800048050788214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.850286538703515</v>
+        <v>0.8490020737268621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9021843580471233</v>
+        <v>0.9031175287369504</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>747</v>
@@ -836,19 +836,19 @@
         <v>779124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>755706</v>
+        <v>754170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>801145</v>
+        <v>799176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8447321724689546</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8193417771614671</v>
+        <v>0.8176769482670151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8686075840908434</v>
+        <v>0.8664727534728643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1248</v>
@@ -857,19 +857,19 @@
         <v>1293171</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1265626</v>
+        <v>1265116</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1318701</v>
+        <v>1320445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8584092740020878</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8401247823863486</v>
+        <v>0.8397860052071182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8753558532243187</v>
+        <v>0.8765137971194625</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>85116</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68489</v>
+        <v>69780</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103607</v>
+        <v>104514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07896498917209001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06353952061859597</v>
+        <v>0.06473702383608722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0961198197199935</v>
+        <v>0.09696109074344034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -982,19 +982,19 @@
         <v>96784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78632</v>
+        <v>79342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115978</v>
+        <v>117266</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09151796230364062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07435400983751746</v>
+        <v>0.07502564343868642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1096676178615719</v>
+        <v>0.1108860040207656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -1003,19 +1003,19 @@
         <v>181900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157317</v>
+        <v>156827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>207944</v>
+        <v>209024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08518164506046536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07366969541586921</v>
+        <v>0.0734403473985432</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09737801782556066</v>
+        <v>0.09788347844783908</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>992778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>974287</v>
+        <v>973380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1009405</v>
+        <v>1008114</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.92103501082791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9038801802800066</v>
+        <v>0.9030389092565599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9364604793814042</v>
+        <v>0.9352629761639127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -1053,19 +1053,19 @@
         <v>960754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>941560</v>
+        <v>940272</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>978906</v>
+        <v>978196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9084820376963594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8903323821384281</v>
+        <v>0.8891139959792346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9256459901624825</v>
+        <v>0.9249743565613137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1904</v>
@@ -1074,19 +1074,19 @@
         <v>1953532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1927488</v>
+        <v>1926408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1978115</v>
+        <v>1978605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9148183549395347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9026219821744393</v>
+        <v>0.9021165215521612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9263303045841309</v>
+        <v>0.9265596526014568</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>70232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56645</v>
+        <v>55942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87979</v>
+        <v>88751</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06261799269212986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05050380794915615</v>
+        <v>0.04987692201210924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07844060308125746</v>
+        <v>0.07912890998555804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1199,19 +1199,19 @@
         <v>82776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66442</v>
+        <v>66886</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102151</v>
+        <v>102217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0832806048677415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06684666865420351</v>
+        <v>0.0672940713061309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1027733070823192</v>
+        <v>0.1028405335245317</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -1220,19 +1220,19 @@
         <v>153008</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>129202</v>
+        <v>130387</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181221</v>
+        <v>176558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07232589137850795</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06107300218465646</v>
+        <v>0.06163333478844864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08566206417257528</v>
+        <v>0.08345767442937552</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1051362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1033615</v>
+        <v>1032843</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1064949</v>
+        <v>1065652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9373820073078701</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9215593969187428</v>
+        <v>0.920871090014442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9494961920508439</v>
+        <v>0.9501230779878906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>903</v>
@@ -1270,19 +1270,19 @@
         <v>911164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>891789</v>
+        <v>891723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>927498</v>
+        <v>927054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9167193951322585</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8972266929176808</v>
+        <v>0.8971594664754682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.933153331345796</v>
+        <v>0.9327059286938688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1933</v>
@@ -1291,19 +1291,19 @@
         <v>1962526</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1934313</v>
+        <v>1938976</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1986332</v>
+        <v>1985147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.927674108621492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.914337935827425</v>
+        <v>0.9165423255706244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9389269978153437</v>
+        <v>0.9383666652115512</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>26863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18036</v>
+        <v>17609</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37973</v>
+        <v>36177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06007023849295601</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0403299964158112</v>
+        <v>0.03937584599603876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08491239024445718</v>
+        <v>0.08089630272203692</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>20850</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13061</v>
+        <v>12874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31998</v>
+        <v>30962</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06111491596708485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03828462907854097</v>
+        <v>0.03773673261279827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09379202746031008</v>
+        <v>0.09075687057486698</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1437,19 +1437,19 @@
         <v>47713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35751</v>
+        <v>35966</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62824</v>
+        <v>63959</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06052231778219949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04534901986827661</v>
+        <v>0.0456219848343984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07968955493703521</v>
+        <v>0.08112981720188378</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>420337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409227</v>
+        <v>411023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>429164</v>
+        <v>429591</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.939929761507044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9150876097555428</v>
+        <v>0.9191036972779629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9596700035841889</v>
+        <v>0.9606241540039612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>319</v>
@@ -1487,19 +1487,19 @@
         <v>320308</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309160</v>
+        <v>310196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328097</v>
+        <v>328284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9388850840329152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.90620797253969</v>
+        <v>0.9092431294251331</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9617153709214591</v>
+        <v>0.9622632673872018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -1508,19 +1508,19 @@
         <v>740645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>725534</v>
+        <v>724399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752607</v>
+        <v>752392</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9394776822178005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9203104450629651</v>
+        <v>0.9188701827981165</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9546509801317234</v>
+        <v>0.9543780151656016</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>252305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226127</v>
+        <v>222847</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>285848</v>
+        <v>284221</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07809308216660633</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06999040153689189</v>
+        <v>0.06897506708587421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08847524874895403</v>
+        <v>0.08797149002814084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>331</v>
@@ -1633,19 +1633,19 @@
         <v>343618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>311184</v>
+        <v>312785</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>379410</v>
+        <v>379534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1036565170284836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09387248688123703</v>
+        <v>0.09435544015866332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1144536943240488</v>
+        <v>0.1144909872175428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>590</v>
@@ -1654,19 +1654,19 @@
         <v>595924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>546420</v>
+        <v>549743</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>640094</v>
+        <v>641301</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09103909547407404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0834764879593636</v>
+        <v>0.08398407912906029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.097786978789125</v>
+        <v>0.09797135617547316</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2978524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2944981</v>
+        <v>2946608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3004702</v>
+        <v>3007982</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9219069178333936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9115247512510467</v>
+        <v>0.9120285099718592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9300095984631083</v>
+        <v>0.9310249329141258</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2903</v>
@@ -1704,19 +1704,19 @@
         <v>2971351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2935559</v>
+        <v>2935435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3003785</v>
+        <v>3002184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8963434829715163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8855463056759515</v>
+        <v>0.8855090127824572</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9061275131187631</v>
+        <v>0.9056445598413367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5812</v>
@@ -1725,19 +1725,19 @@
         <v>5949874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5905704</v>
+        <v>5904497</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5999378</v>
+        <v>5996055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9089609045259259</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9022130212108748</v>
+        <v>0.902028643824527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9165235120406364</v>
+        <v>0.9160159208709397</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>127045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103656</v>
+        <v>105248</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150875</v>
+        <v>152210</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1218623306251014</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09942788379857288</v>
+        <v>0.1009552069183786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1447207246676874</v>
+        <v>0.1460013453409496</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>170</v>
@@ -2090,19 +2090,19 @@
         <v>184391</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157602</v>
+        <v>159929</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209438</v>
+        <v>210514</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1648330672265364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.140885250313574</v>
+        <v>0.1429661184982666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1872229475249045</v>
+        <v>0.1881855626534479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>284</v>
@@ -2111,19 +2111,19 @@
         <v>311436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279277</v>
+        <v>278210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>346815</v>
+        <v>345956</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1441045118381312</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1292243299168392</v>
+        <v>0.1287305250167189</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1604750898735542</v>
+        <v>0.1600774026691046</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>915481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>891651</v>
+        <v>890316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>938870</v>
+        <v>937278</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8781376693748987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8552792753323124</v>
+        <v>0.8539986546590502</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9005721162014271</v>
+        <v>0.8990447930816213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>860</v>
@@ -2161,19 +2161,19 @@
         <v>934262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>909215</v>
+        <v>908139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>961051</v>
+        <v>958724</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8351669327734637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8127770524750957</v>
+        <v>0.8118144373465521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.859114749686426</v>
+        <v>0.8570338815017335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1723</v>
@@ -2182,19 +2182,19 @@
         <v>1849743</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1814364</v>
+        <v>1815223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1881902</v>
+        <v>1882969</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8558954881618688</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8395249101264458</v>
+        <v>0.8399225973308954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8707756700831613</v>
+        <v>0.8712694749832811</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>98168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80286</v>
+        <v>78718</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122926</v>
+        <v>118855</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1004716640390359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08217016835825168</v>
+        <v>0.08056498565770938</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1258106106430843</v>
+        <v>0.1216439411770628</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -2307,19 +2307,19 @@
         <v>131407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110325</v>
+        <v>110240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154671</v>
+        <v>154267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1202997796091582</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1010003318332314</v>
+        <v>0.1009223271618521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1415977464034106</v>
+        <v>0.1412277125938745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>208</v>
@@ -2328,19 +2328,19 @@
         <v>229575</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201212</v>
+        <v>203699</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>260355</v>
+        <v>262047</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1109378800362245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09723203836008247</v>
+        <v>0.09843396582072257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1258115956422192</v>
+        <v>0.126629277649706</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>878905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>854147</v>
+        <v>858218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>896787</v>
+        <v>898355</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8995283359609642</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8741893893569157</v>
+        <v>0.8783560588229372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9178298316417483</v>
+        <v>0.9194350143422907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>899</v>
@@ -2378,19 +2378,19 @@
         <v>960920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>937656</v>
+        <v>938060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982002</v>
+        <v>982087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8797002203908418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8584022535965894</v>
+        <v>0.858772287406126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8989996681667686</v>
+        <v>0.8990776728381481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1735</v>
@@ -2399,19 +2399,19 @@
         <v>1839825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1809045</v>
+        <v>1807353</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1868188</v>
+        <v>1865701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8890621199637756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8741884043577807</v>
+        <v>0.873370722350294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9027679616399176</v>
+        <v>0.9015660341792774</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>114370</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94806</v>
+        <v>96000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136647</v>
+        <v>137951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1292148341999037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1071116662070563</v>
+        <v>0.1084609448217325</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1543837058129582</v>
+        <v>0.1558564721233677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -2524,19 +2524,19 @@
         <v>124007</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103183</v>
+        <v>103318</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145557</v>
+        <v>145846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.141593601150137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1178167307050809</v>
+        <v>0.1179708642105985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1661997487477322</v>
+        <v>0.166529794383563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -2545,19 +2545,19 @@
         <v>238377</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208381</v>
+        <v>210067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>265874</v>
+        <v>266777</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1353714613991367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1183371153217981</v>
+        <v>0.1192944039432264</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.150986546022191</v>
+        <v>0.1514996857031348</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>770745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748468</v>
+        <v>747164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>790309</v>
+        <v>789115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8707851658000964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8456162941870419</v>
+        <v>0.8441435278766322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8928883337929441</v>
+        <v>0.8915390551782674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>705</v>
@@ -2595,19 +2595,19 @@
         <v>751789</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>730239</v>
+        <v>729950</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>772613</v>
+        <v>772478</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8584063988498629</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8338002512522678</v>
+        <v>0.833470205616437</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8821832692949191</v>
+        <v>0.8820291357894017</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1431</v>
@@ -2616,19 +2616,19 @@
         <v>1522534</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1495037</v>
+        <v>1494134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1552530</v>
+        <v>1550844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8646285386008633</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.849013453977809</v>
+        <v>0.8485003142968652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.881662884678202</v>
+        <v>0.8807055960567736</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>47992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36546</v>
+        <v>35575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64219</v>
+        <v>64906</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09540802341063913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07265185125045118</v>
+        <v>0.07072216450566608</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.127666225680645</v>
+        <v>0.1290312975511952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -2741,19 +2741,19 @@
         <v>48934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36691</v>
+        <v>36770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64112</v>
+        <v>66687</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1080848218991764</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08104218876383987</v>
+        <v>0.0812166077042626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1416097202625813</v>
+        <v>0.1472966647258424</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -2762,19 +2762,19 @@
         <v>96926</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78604</v>
+        <v>78024</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116950</v>
+        <v>119367</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1014129287212963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08224275869463515</v>
+        <v>0.0816361368302434</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1223640401333081</v>
+        <v>0.1248921999458767</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>455031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438804</v>
+        <v>438117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>466477</v>
+        <v>467448</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9045919765893609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.872333774319355</v>
+        <v>0.8709687024488049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.927348148749549</v>
+        <v>0.9292778354943342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -2812,19 +2812,19 @@
         <v>403802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388624</v>
+        <v>386049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>416045</v>
+        <v>415966</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8919151781008237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8583902797374192</v>
+        <v>0.8527033352741575</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9189578112361602</v>
+        <v>0.9187833922957374</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>786</v>
@@ -2833,19 +2833,19 @@
         <v>858832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>838808</v>
+        <v>836391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>877154</v>
+        <v>877734</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8985870712787037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8776359598666919</v>
+        <v>0.8751078000541234</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9177572413053648</v>
+        <v>0.9183638631697566</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>387575</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350612</v>
+        <v>350188</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>428975</v>
+        <v>430094</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1137339028644201</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1028870590833028</v>
+        <v>0.1027625483448514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.125882633601952</v>
+        <v>0.1262109711097671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>450</v>
@@ -2958,19 +2958,19 @@
         <v>488739</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>448269</v>
+        <v>450641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>531225</v>
+        <v>533538</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1380808177507087</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1266471804065611</v>
+        <v>0.1273171761668977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1500842464262411</v>
+        <v>0.1507378383638828</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>799</v>
@@ -2979,19 +2979,19 @@
         <v>876314</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>822092</v>
+        <v>824084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>940124</v>
+        <v>937183</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1261382646122132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1183334826625009</v>
+        <v>0.1186201456968671</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1353232543412753</v>
+        <v>0.1348998207996956</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3020162</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2978762</v>
+        <v>2977643</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3057125</v>
+        <v>3057549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8862660971355799</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8741173663980477</v>
+        <v>0.8737890288902328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8971129409166969</v>
+        <v>0.8972374516551485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2832</v>
@@ -3029,19 +3029,19 @@
         <v>3050772</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3008286</v>
+        <v>3005973</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3091242</v>
+        <v>3088870</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8619191822492913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8499157535737585</v>
+        <v>0.8492621616361171</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8733528195934388</v>
+        <v>0.8726828238331024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5675</v>
@@ -3050,19 +3050,19 @@
         <v>6070934</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6007124</v>
+        <v>6010065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6125156</v>
+        <v>6123164</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8738617353877868</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8646767456587247</v>
+        <v>0.8651001792003044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8816665173374991</v>
+        <v>0.8813798543031329</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>153571</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>131910</v>
+        <v>130972</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178060</v>
+        <v>176233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1361452050993826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1169418793214944</v>
+        <v>0.1161099535426755</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1578552619065086</v>
+        <v>0.1562356751067581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -3415,19 +3415,19 @@
         <v>187829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162228</v>
+        <v>164362</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>213892</v>
+        <v>216106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1491223588324945</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1287972345613816</v>
+        <v>0.1304913602863048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1698146570218125</v>
+        <v>0.17157256325414</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>316</v>
@@ -3436,19 +3436,19 @@
         <v>341400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>304779</v>
+        <v>308320</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374448</v>
+        <v>377338</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1429913272656002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1276530105872624</v>
+        <v>0.1291360240242815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1568328728963436</v>
+        <v>0.158043545286516</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>974426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>949937</v>
+        <v>951764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>996087</v>
+        <v>997025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8638547949006175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8421447380934914</v>
+        <v>0.8437643248932418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8830581206785056</v>
+        <v>0.8838900464573244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1020</v>
@@ -3486,19 +3486,19 @@
         <v>1071732</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1045669</v>
+        <v>1043455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1097333</v>
+        <v>1095199</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8508776411675054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8301853429781874</v>
+        <v>0.8284274367458599</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8712027654386183</v>
+        <v>0.8695086397136952</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1938</v>
@@ -3507,19 +3507,19 @@
         <v>2046158</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2013110</v>
+        <v>2010220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2082779</v>
+        <v>2079238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8570086727343998</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8431671271036563</v>
+        <v>0.8419564547134839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8723469894127375</v>
+        <v>0.8708639759757185</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>95992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79103</v>
+        <v>78552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116070</v>
+        <v>115839</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1056219025566766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08703843707711052</v>
+        <v>0.08643235192498591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1277147451436982</v>
+        <v>0.1274606730745026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -3632,19 +3632,19 @@
         <v>123472</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102953</v>
+        <v>101545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147191</v>
+        <v>144557</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1226779384311868</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1022910288376518</v>
+        <v>0.1008917022711051</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1462441873455686</v>
+        <v>0.1436271267161013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>206</v>
@@ -3653,19 +3653,19 @@
         <v>219464</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190848</v>
+        <v>195328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>248048</v>
+        <v>249860</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1145847167838932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0996440485951447</v>
+        <v>0.1019828615360168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1295087141371921</v>
+        <v>0.1304549332006774</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>812833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>792755</v>
+        <v>792986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>829722</v>
+        <v>830273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8943780974433234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8722852548563018</v>
+        <v>0.8725393269254974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9129615629228897</v>
+        <v>0.9135676480750141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>841</v>
@@ -3703,19 +3703,19 @@
         <v>883003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>859284</v>
+        <v>861918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>903522</v>
+        <v>904930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8773220615688132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8537558126544316</v>
+        <v>0.8563728732838991</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8977089711623484</v>
+        <v>0.8991082977288951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1626</v>
@@ -3724,19 +3724,19 @@
         <v>1695836</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1667252</v>
+        <v>1665440</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1724452</v>
+        <v>1719972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8854152832161069</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8704912858628078</v>
+        <v>0.8695450667993225</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9003559514048554</v>
+        <v>0.8980171384639832</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>85237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69843</v>
+        <v>68825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106179</v>
+        <v>103493</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1034729507780425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08478559540417492</v>
+        <v>0.08355007571417547</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1288951074267866</v>
+        <v>0.1256351843370916</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -3849,19 +3849,19 @@
         <v>90955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72617</v>
+        <v>73274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112119</v>
+        <v>111552</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1179607601679532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09417868213806849</v>
+        <v>0.09503062129315359</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1454088906824376</v>
+        <v>0.1446733174595085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -3870,19 +3870,19 @@
         <v>176191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152341</v>
+        <v>148447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>203587</v>
+        <v>203228</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1104774813860297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09552261782553499</v>
+        <v>0.09308106275528694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.127655253738899</v>
+        <v>0.1274303090442362</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>738522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717580</v>
+        <v>720266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753916</v>
+        <v>754934</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8965270492219575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8711048925732132</v>
+        <v>0.8743648156629082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9152144045958249</v>
+        <v>0.9164499242858244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -3920,19 +3920,19 @@
         <v>680104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>658940</v>
+        <v>659507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>698442</v>
+        <v>697785</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8820392398320468</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8545911093175623</v>
+        <v>0.8553266825404909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9058213178619315</v>
+        <v>0.9049693787068464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1353</v>
@@ -3941,19 +3941,19 @@
         <v>1418627</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1391231</v>
+        <v>1391590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1442477</v>
+        <v>1446371</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8895225186139704</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8723447462611011</v>
+        <v>0.8725696909557638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.904477382174465</v>
+        <v>0.9069189372447131</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>48204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35845</v>
+        <v>35743</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62972</v>
+        <v>63791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09513270487741088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07074245225353705</v>
+        <v>0.07053984585195082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1242782359626344</v>
+        <v>0.125895672731445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -4066,19 +4066,19 @@
         <v>63366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47616</v>
+        <v>47844</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82328</v>
+        <v>79478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1293981711879167</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09723459839596532</v>
+        <v>0.0977007875517306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1681208255808777</v>
+        <v>0.1623009119388252</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -4087,19 +4087,19 @@
         <v>111570</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89900</v>
+        <v>93452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132840</v>
+        <v>133333</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1119730712118198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09022493626238971</v>
+        <v>0.09378965101503463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1333199873717509</v>
+        <v>0.1338152396293671</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>458497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>443729</v>
+        <v>442910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470856</v>
+        <v>470958</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9048672951225891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8757217640373657</v>
+        <v>0.8741043272685549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.929257547746463</v>
+        <v>0.9294601541480487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -4137,19 +4137,19 @@
         <v>426332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407370</v>
+        <v>410220</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>442082</v>
+        <v>441854</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8706018288120834</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8318791744191223</v>
+        <v>0.8376990880611748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9027654016040347</v>
+        <v>0.9022992124482693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>827</v>
@@ -4158,19 +4158,19 @@
         <v>884828</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>863558</v>
+        <v>863065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>906498</v>
+        <v>902946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8880269287881801</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.866680012628249</v>
+        <v>0.8661847603706324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9097750637376102</v>
+        <v>0.9062103489849653</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>383004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>348651</v>
+        <v>349740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>419385</v>
+        <v>422653</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1137427230931453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1035408075612376</v>
+        <v>0.1038642501871611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1245471023522776</v>
+        <v>0.1255174345037332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>408</v>
@@ -4283,19 +4283,19 @@
         <v>465622</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>427693</v>
+        <v>425474</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>512316</v>
+        <v>506030</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1320241119760067</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1212696781574343</v>
+        <v>0.1206405454333025</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1452641367400089</v>
+        <v>0.1434816845596212</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>783</v>
@@ -4304,19 +4304,19 @@
         <v>848626</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>792847</v>
+        <v>797064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>897743</v>
+        <v>908969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1230949083018915</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1150041222835379</v>
+        <v>0.1156157950606151</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1302194323177342</v>
+        <v>0.131847825983518</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2984278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2947897</v>
+        <v>2944629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3018631</v>
+        <v>3017542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8862572769068547</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8754528976477224</v>
+        <v>0.8744825654962667</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8964591924387624</v>
+        <v>0.8961357498128387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2914</v>
@@ -4354,19 +4354,19 @@
         <v>3061170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3014476</v>
+        <v>3020762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3099099</v>
+        <v>3101318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8679758880239933</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8547358632599912</v>
+        <v>0.8565183154403787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8787303218425657</v>
+        <v>0.8793594545666975</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5744</v>
@@ -4375,19 +4375,19 @@
         <v>6045449</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5996332</v>
+        <v>5985106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6101228</v>
+        <v>6097011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8769050916981085</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8697805676822662</v>
+        <v>0.8681521740164819</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8849958777164626</v>
+        <v>0.8843842049393849</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>77310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61671</v>
+        <v>62982</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92044</v>
+        <v>95098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1564645138080461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1248137749013681</v>
+        <v>0.1274663640690853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1862850367647992</v>
+        <v>0.1924646450451209</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -4740,19 +4740,19 @@
         <v>111516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95928</v>
+        <v>97053</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126206</v>
+        <v>129494</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.179429190968907</v>
+        <v>0.1794291909689071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1543468660530788</v>
+        <v>0.1561582899807833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2030648628691164</v>
+        <v>0.2083555556275354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>281</v>
@@ -4761,19 +4761,19 @@
         <v>188826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166197</v>
+        <v>167758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>209166</v>
+        <v>212623</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1692581379030818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1489737554144766</v>
+        <v>0.1503732220435119</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.187490472489488</v>
+        <v>0.1905887868403048</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>416794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402060</v>
+        <v>399006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>432433</v>
+        <v>431122</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.843535486191954</v>
+        <v>0.8435354861919542</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8137149632352009</v>
+        <v>0.807535354954879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.875186225098632</v>
+        <v>0.8725336359309146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>668</v>
@@ -4811,19 +4811,19 @@
         <v>509990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>495300</v>
+        <v>492012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>525578</v>
+        <v>524453</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8205708090310931</v>
+        <v>0.8205708090310929</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7969351371308836</v>
+        <v>0.7916444443724646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.845653133946921</v>
+        <v>0.8438417100192165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1027</v>
@@ -4832,19 +4832,19 @@
         <v>926784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>906444</v>
+        <v>902987</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>949413</v>
+        <v>947852</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8307418620969182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8125095275105119</v>
+        <v>0.8094112131596951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.851026244585523</v>
+        <v>0.8496267779564882</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>132620</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113227</v>
+        <v>113149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153406</v>
+        <v>153342</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1384346089640208</v>
+        <v>0.1384346089640207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1181918620056126</v>
+        <v>0.1181100053843799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1601317857168703</v>
+        <v>0.1600653856589888</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>337</v>
@@ -4957,19 +4957,19 @@
         <v>188464</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>169679</v>
+        <v>168650</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>207446</v>
+        <v>211044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1691799086924541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1523167102730266</v>
+        <v>0.1513937082864046</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1862194884909046</v>
+        <v>0.1894494824890919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>508</v>
@@ -4978,19 +4978,19 @@
         <v>321084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>293218</v>
+        <v>292341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>351618</v>
+        <v>353434</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1549645871483527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1415157527751128</v>
+        <v>0.1410926155782886</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1697012732446901</v>
+        <v>0.1705780544563252</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>825376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>804590</v>
+        <v>804654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>844769</v>
+        <v>844847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8615653910359794</v>
+        <v>0.8615653910359792</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8398682142831296</v>
+        <v>0.8399346143410111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8818081379943873</v>
+        <v>0.8818899946156202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1267</v>
@@ -5028,19 +5028,19 @@
         <v>925521</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906539</v>
+        <v>902941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>944306</v>
+        <v>945335</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8308200913075459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8137805115090955</v>
+        <v>0.8105505175109079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8476832897269734</v>
+        <v>0.8486062917135954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2004</v>
@@ -5049,19 +5049,19 @@
         <v>1750897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1720363</v>
+        <v>1718547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1778763</v>
+        <v>1779640</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8450354128516473</v>
+        <v>0.8450354128516474</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8302987267553101</v>
+        <v>0.8294219455436738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8584842472248875</v>
+        <v>0.8589073844217114</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>144183</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124005</v>
+        <v>125601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165375</v>
+        <v>166384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1377788744201029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1184976865803736</v>
+        <v>0.1200220417243806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1580298364031551</v>
+        <v>0.1589942010272201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>271</v>
@@ -5174,19 +5174,19 @@
         <v>147105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130860</v>
+        <v>130422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165250</v>
+        <v>164105</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1407602386443888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1252158193345076</v>
+        <v>0.1247959702690346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1581225346118114</v>
+        <v>0.1570261307243069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>456</v>
@@ -5195,19 +5195,19 @@
         <v>291288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263123</v>
+        <v>262889</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>319008</v>
+        <v>318527</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1392685579809458</v>
+        <v>0.1392685579809457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1258026721117832</v>
+        <v>0.1256906926032359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1525215698249495</v>
+        <v>0.1522916385274554</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>902296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>881104</v>
+        <v>880095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>922474</v>
+        <v>920878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8622211255798971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8419701635968446</v>
+        <v>0.8410057989727798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8815023134196264</v>
+        <v>0.8799779582756192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1241</v>
@@ -5245,19 +5245,19 @@
         <v>897973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>879828</v>
+        <v>880973</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>914218</v>
+        <v>914656</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.859239761355611</v>
+        <v>0.8592397613556112</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8418774653881884</v>
+        <v>0.8429738692756932</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8747841806654922</v>
+        <v>0.8752040297309654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2085</v>
@@ -5266,19 +5266,19 @@
         <v>1800269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1772549</v>
+        <v>1773030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1828434</v>
+        <v>1828668</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8607314420190543</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8474784301750503</v>
+        <v>0.8477083614725444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8741973278882166</v>
+        <v>0.8743093073967642</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>149603</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129767</v>
+        <v>128876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173278</v>
+        <v>173080</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1534408177096287</v>
+        <v>0.1534408177096286</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1330961504008732</v>
+        <v>0.1321816353460005</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1777233713869994</v>
+        <v>0.1775202365176013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>269</v>
@@ -5391,19 +5391,19 @@
         <v>149379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132269</v>
+        <v>133071</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166684</v>
+        <v>169099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1646259233900904</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1457699707071393</v>
+        <v>0.1466534279909886</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1836971863581234</v>
+        <v>0.186359010443085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>447</v>
@@ -5412,19 +5412,19 @@
         <v>298982</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270688</v>
+        <v>271699</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>326470</v>
+        <v>329836</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1588325156476805</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1438014922345073</v>
+        <v>0.1443389385013161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1734352959992541</v>
+        <v>0.1752235268231289</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>825385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>801710</v>
+        <v>801908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>845221</v>
+        <v>846112</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8465591822903714</v>
+        <v>0.8465591822903713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8222766286130003</v>
+        <v>0.8224797634823985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8669038495991267</v>
+        <v>0.8678183646539994</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1049</v>
@@ -5462,19 +5462,19 @@
         <v>758004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>740699</v>
+        <v>738284</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>775114</v>
+        <v>774312</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8353740766099096</v>
+        <v>0.8353740766099095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8163028136418765</v>
+        <v>0.8136409895569139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8542300292928607</v>
+        <v>0.8533465720090112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1817</v>
@@ -5483,19 +5483,19 @@
         <v>1583389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1555901</v>
+        <v>1552535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1611683</v>
+        <v>1610672</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8411674843523195</v>
+        <v>0.8411674843523197</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.826564704000746</v>
+        <v>0.8247764731768711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8561985077654927</v>
+        <v>0.8556610614986838</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>503715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>464914</v>
+        <v>465005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>543637</v>
+        <v>544175</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1450138112761012</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.133843375921093</v>
+        <v>0.1338695221821754</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1565067650363151</v>
+        <v>0.1566617355544853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1067</v>
@@ -5608,19 +5608,19 @@
         <v>596465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>563618</v>
+        <v>564841</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>629471</v>
+        <v>634937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1617332319472569</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1528268328617832</v>
+        <v>0.1531583782757711</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1706830077219967</v>
+        <v>0.1721650968960226</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1692</v>
@@ -5629,19 +5629,19 @@
         <v>1100180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1044869</v>
+        <v>1050757</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1150271</v>
+        <v>1154991</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1536237763662038</v>
+        <v>0.1536237763662037</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1459004619272593</v>
+        <v>0.1467226670382651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1606183051632037</v>
+        <v>0.1612773439716715</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2969852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2929930</v>
+        <v>2929392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3008653</v>
+        <v>3008562</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8549861887238988</v>
+        <v>0.8549861887238986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8434932349636848</v>
+        <v>0.8433382644455147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8661566240789069</v>
+        <v>0.8661304778178247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4225</v>
@@ -5679,19 +5679,19 @@
         <v>3091488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3058482</v>
+        <v>3053016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3124335</v>
+        <v>3123112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8382667680527429</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8293169922780034</v>
+        <v>0.8278349031039776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8471731671382168</v>
+        <v>0.8468416217242289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6933</v>
@@ -5700,19 +5700,19 @@
         <v>6061339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6011248</v>
+        <v>6006528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6116650</v>
+        <v>6110762</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8463762236337965</v>
+        <v>0.8463762236337962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8393816948367965</v>
+        <v>0.8387226560283283</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8540995380727409</v>
+        <v>0.8532773329617346</v>
       </c>
     </row>
     <row r="18">
